--- a/excel_datei_einstellungen/optische_Fehler.xlsx
+++ b/excel_datei_einstellungen/optische_Fehler.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1F652B73-CA66-4A29-98E3-8B8ADF1500F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,25 +25,25 @@
     <t>Optische Fehler</t>
   </si>
   <si>
-    <t>Bläschen im Verguss</t>
-  </si>
-  <si>
-    <t>Step ausgefallen</t>
-  </si>
-  <si>
-    <t>Anderer Verguss Fehler</t>
-  </si>
-  <si>
-    <t>Profil beschädigt</t>
-  </si>
-  <si>
-    <t>Anderer Fehler</t>
+    <t>Offene Luftblasen</t>
+  </si>
+  <si>
+    <t>Luftblasen mit dem Finger fühlbar an der Vergussoberfläche</t>
+  </si>
+  <si>
+    <t>Luftblasen über dem LED-Band</t>
+  </si>
+  <si>
+    <t>Vergussmaterial über die LED gelaufen</t>
+  </si>
+  <si>
+    <t>Vergusshöhe mit Tiefenmesser falsch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,11 +390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
